--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Acvr2b</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H2">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.2902979613062</v>
+        <v>1.539665666666667</v>
       </c>
       <c r="N2">
-        <v>1.2902979613062</v>
+        <v>4.618997</v>
       </c>
       <c r="O2">
-        <v>0.5044191609537466</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="P2">
-        <v>0.5044191609537466</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="Q2">
-        <v>2.246772907300683</v>
+        <v>2.783099145844778</v>
       </c>
       <c r="R2">
-        <v>2.246772907300683</v>
+        <v>25.047892312603</v>
       </c>
       <c r="S2">
-        <v>0.5044191609537466</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="T2">
-        <v>0.5044191609537466</v>
+        <v>0.3572088291809875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H3">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +608,96 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.26768964342025</v>
+        <v>1.452872333333333</v>
       </c>
       <c r="N3">
-        <v>1.26768964342025</v>
+        <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.4955808390462534</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="P3">
-        <v>0.4955808390462534</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="Q3">
-        <v>2.207405445188</v>
+        <v>2.626211545442556</v>
       </c>
       <c r="R3">
-        <v>2.207405445188</v>
+        <v>23.635903908983</v>
       </c>
       <c r="S3">
-        <v>0.4955808390462534</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="T3">
-        <v>0.4955808390462534</v>
+        <v>0.3370724153789985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.807599666666667</v>
+      </c>
+      <c r="H4">
+        <v>5.422799</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.317729666666667</v>
+      </c>
+      <c r="N4">
+        <v>3.953189</v>
+      </c>
+      <c r="O4">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="P4">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="Q4">
+        <v>2.381927706223445</v>
+      </c>
+      <c r="R4">
+        <v>21.437349356011</v>
+      </c>
+      <c r="S4">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="T4">
+        <v>0.3057187554400141</v>
       </c>
     </row>
   </sheetData>
